--- a/2409-2501/4.FinalProject/CodeetResultat/Final-Projet-Result.xlsx
+++ b/2409-2501/4.FinalProject/CodeetResultat/Final-Projet-Result.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16273\GitHub\ISEP-Documents\2409-2501\4.FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16273\GitHub\ISEP-Documents\2409-2501\4.FinalProject\CodeetResultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26296234-4DD3-4143-A515-10E85B3155E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6DB5F-9E6A-4018-B59C-8FD3604C94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="5410" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{465AE4DA-D652-4187-9FA1-8C94F3B58518}"/>
+    <workbookView xWindow="9600" yWindow="3710" windowWidth="28800" windowHeight="15370" firstSheet="1" activeTab="4" xr2:uid="{465AE4DA-D652-4187-9FA1-8C94F3B58518}"/>
   </bookViews>
   <sheets>
-    <sheet name="TrainingData" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="DNN-TrainingData" sheetId="1" r:id="rId1"/>
+    <sheet name="DNN-TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="GNN-TrainingData" sheetId="4" r:id="rId3"/>
+    <sheet name="GNN-TestData" sheetId="5" r:id="rId4"/>
+    <sheet name="DNNvs.GNN" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TrainingData!$A$1:$I$23</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">TrainingData!$A$30:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DNN-TrainingData'!$A$1:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GNN-TrainingData'!$A$1:$I$21</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'DNN-TrainingData'!$A$30:$C$30</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'GNN-TrainingData'!$A$28:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="23">
   <si>
     <t>Le</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +119,26 @@
     <t>BS=64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -158,12 +183,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -192,6 +211,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -207,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,10 +275,22 @@
     <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -265,22 +302,13 @@
     <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -292,16 +320,19 @@
     <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -359,7 +390,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Données d'Entraînement (</a:t>
+              <a:t>DNN-Données d'Entraînement (</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -439,7 +470,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TrainingData!$A$32:$A$36</c:f>
+              <c:f>'DNN-TrainingData'!$A$32:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -462,7 +493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TrainingData!$B$32:$B$36</c:f>
+              <c:f>'DNN-TrainingData'!$B$32:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -523,7 +554,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TrainingData!$A$32:$A$36</c:f>
+              <c:f>'DNN-TrainingData'!$A$32:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -546,7 +577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TrainingData!$C$32:$C$36</c:f>
+              <c:f>'DNN-TrainingData'!$C$32:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -607,7 +638,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TrainingData!$A$43:$A$47</c:f>
+              <c:f>'DNN-TrainingData'!$A$43:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -630,7 +661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TrainingData!$B$43:$B$47</c:f>
+              <c:f>'DNN-TrainingData'!$B$43:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -691,7 +722,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TrainingData!$A$43:$A$47</c:f>
+              <c:f>'DNN-TrainingData'!$A$43:$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -714,7 +745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TrainingData!$C$43:$C$47</c:f>
+              <c:f>'DNN-TrainingData'!$C$43:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -823,7 +854,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -953,7 +984,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1112,7 +1143,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Données de Test (</a:t>
+              <a:t>DNN-Données de Test (</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1189,7 +1220,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TestData!$A$27:$A$31</c:f>
+              <c:f>'DNN-TestData'!$A$27:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1212,7 +1243,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TestData!$B$27:$B$31</c:f>
+              <c:f>'DNN-TestData'!$B$27:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1273,7 +1304,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TestData!$A$27:$A$31</c:f>
+              <c:f>'DNN-TestData'!$A$27:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1296,7 +1327,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TestData!$C$27:$C$31</c:f>
+              <c:f>'DNN-TestData'!$C$27:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1357,7 +1388,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TestData!$A$38:$A$42</c:f>
+              <c:f>'DNN-TestData'!$A$38:$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1380,7 +1411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TestData!$B$38:$B$42</c:f>
+              <c:f>'DNN-TestData'!$B$38:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1441,7 +1472,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>TestData!$A$38:$A$42</c:f>
+              <c:f>'DNN-TestData'!$A$38:$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1464,7 +1495,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TestData!$C$38:$C$42</c:f>
+              <c:f>'DNN-TestData'!$C$38:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1703,11 +1734,2217 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_);\(#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768709184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Données d'Entraînement (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Data)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Le=1000,Fe=500,K=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TrainingData'!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TrainingData'!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.853129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4651999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1567999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C61-49AE-A065-F46BE8B60709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Le=1000,Fe=500,K=15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TrainingData'!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TrainingData'!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.9319000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.520251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3546999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2955000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C61-49AE-A065-F46BE8B60709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Le=3000,Fe=1000,K=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TrainingData'!$A$41:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TrainingData'!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6248999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3805999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5274000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C61-49AE-A065-F46BE8B60709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Le=3000,Fe=1000,K=15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TrainingData'!$A$41:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TrainingData'!$C$41:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2816999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5925500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6042999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C61-49AE-A065-F46BE8B60709}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="716798064"/>
+        <c:axId val="460138096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="716798064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Étage du Bâtiment 0</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42359729664530266"/>
+              <c:y val="0.91241793196584864"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460138096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460138096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Erreur moyenne (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.11518042955256111"/>
+              <c:y val="0.22307085910992924"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="716798064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>GNN-Données de Test (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TestData)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Le=1000,Fe=500,K=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TestData'!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TestData'!$B$27:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.6870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4E9-4C10-AEAE-D38694232049}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Le=1000,Fe=500,K=15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TestData'!$A$27:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TestData'!$C$27:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.4311999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0750000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4E9-4C10-AEAE-D38694232049}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Le=3000,Fe=1000,K=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TestData'!$A$38:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TestData'!$B$38:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3289999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4E9-4C10-AEAE-D38694232049}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Le=3000,Fe=1000,K=15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GNN-TestData'!$A$38:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GNN-TestData'!$C$38:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5833000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1665999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A4E9-4C10-AEAE-D38694232049}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="768709184"/>
+        <c:axId val="768714944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="768709184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Étage du Bâtiment 0</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41440882141886637"/>
+              <c:y val="0.90789105331239117"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768714944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="768714944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Erreur moyenne (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1177911221298141"/>
+              <c:y val="0.18097222222222226"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00_);\(#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768709184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>DNN vs. GNN</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Longitude &amp; Latitude_epochs = 3000 et </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Floor_epochs = 1000 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Training-BS=32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DNNvs.GNN!$A$31:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>b0f0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b0f1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>b0f2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>b0f3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DNNvs.GNN!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-94CC-4B7F-8954-C22ACA7557AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Training-K=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DNNvs.GNN!$C$31:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6248999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2972999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3805999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5274000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-94CC-4B7F-8954-C22ACA7557AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Test-BS=32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DNNvs.GNN!$B$39:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-94CC-4B7F-8954-C22ACA7557AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Test-K=5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DNNvs.GNN!$C$39:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3289999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-94CC-4B7F-8954-C22ACA7557AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="768709184"/>
+        <c:axId val="768714944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="768709184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Étage du Bâtiment 0</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41440882141886637"/>
+              <c:y val="0.90789105331239117"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768714944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="768714944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Erreur moyenne (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1177911221298141"/>
+              <c:y val="0.18097222222222226"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1907,6 +4144,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2411,6 +4768,1515 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2979,6 +6845,135 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1445846</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564A5C4A-DF56-4754-A18C-EEB685F7A89F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657088</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13253F2D-D5ED-4C5A-AD86-C97DE3E9E445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1178925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DA006C-60DF-476E-94BA-4F34D9EAF2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3314,8 +7309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4FC0D3-917E-4BFE-A35C-924C72FB312F}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A13" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3357,234 +7352,234 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="33">
         <v>1000</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="33">
         <v>500</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="33">
         <v>32</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="33">
         <v>1059</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="33">
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="32">
         <v>4570.5537999999997</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="32">
         <v>4570.5537999999997</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="32">
         <v>4.32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="33">
         <v>1000</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="33">
         <v>500</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="33">
         <v>128</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="33">
         <v>1059</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="33">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="32">
         <v>4778.2285000000002</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="32">
         <v>4778.2285000000002</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="32">
         <v>4.51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="33">
         <v>3000</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="33">
         <v>1000</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="33">
         <v>32</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="33">
         <v>1059</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="33">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="32">
         <v>3399.7755999999999</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="32">
         <v>3399.7755999999999</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="32">
         <v>3.15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="33">
         <v>3000</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="33">
         <v>1000</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="33">
         <v>128</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="33">
         <v>1059</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="33">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="32">
         <v>3844.9050000000002</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="32">
         <v>3844.9050000000002</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="32">
         <v>3.63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>1000</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>500</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>32</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>1356</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>5197.1719000000003</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>5197.1719000000003</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>3.83</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>1000</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>500</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>128</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>1356</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>5203.6854000000003</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>5203.6854000000003</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>3.84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>3000</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>1000</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>32</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>1356</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>4312.3843999999999</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>4312.3843999999999</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <v>3.18</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>3000</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>1000</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>128</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>1356</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>4488.2673000000004</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>4488.2673000000004</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>3.31</v>
       </c>
     </row>
@@ -3705,292 +7700,292 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>1000</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>500</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>32</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>1391</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>5112.3361999999997</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>5112.3361999999997</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>3.68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>1000</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>500</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>128</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>1391</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>4915.2249000000002</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>4915.2249000000002</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>3.53</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>3000</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>1000</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>32</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>1391</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>4397.1553000000004</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>4397.1553000000004</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>3.16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>3000</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>1000</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>128</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>1391</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>4979.2420000000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>4979.2420000000002</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>3.58</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>1000</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>500</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>32</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>5249</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>6</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>26247.420900000001</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>26271.420900000001</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <v>5.01</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>1000</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>500</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>128</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>5249</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>2</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <v>28620.311699999998</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>28628.311699999998</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <v>5.45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>1000</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>500</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>256</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>5249</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>1</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>26659.429899999999</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>26663.429899999999</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="12">
         <v>5.08</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <v>3000</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>1000</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>32</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <v>5249</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <v>0</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>22907.441999999999</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>22907.441999999999</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>3000</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>1000</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>128</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>5249</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <v>25751.638500000001</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <v>25755.638500000001</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="12">
         <v>4.91</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>3000</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>1000</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>256</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <v>5249</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <v>1</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>21910.820199999998</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <v>21914.820199999998</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="12">
         <v>4.18</v>
       </c>
     </row>
@@ -4001,11 +7996,11 @@
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -4025,13 +8020,13 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="32">
         <v>4.32</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="32">
         <v>4.51</v>
       </c>
       <c r="D32" s="2"/>
@@ -4039,13 +8034,13 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>3.83</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>3.84</v>
       </c>
       <c r="D33" s="2"/>
@@ -4067,13 +8062,13 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>3.68</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>3.53</v>
       </c>
       <c r="D35" s="2"/>
@@ -4081,22 +8076,22 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>5.01</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <v>5.45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -4110,24 +8105,24 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="32">
         <v>3.15</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="32">
         <v>3.63</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="8">
         <v>3.18</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>3.31</v>
       </c>
     </row>
@@ -4143,24 +8138,24 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="10">
         <v>3.16</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>3.58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="12">
         <v>4.3600000000000003</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>4.91</v>
       </c>
     </row>
@@ -4179,8 +8174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF941F11-0A39-408C-8AAC-7A545D0B0440}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4220,591 +8215,591 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>1000</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>500</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="27">
         <v>32</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="27">
         <v>78</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="27">
         <v>0</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="28">
         <v>481.92849999999999</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="28">
         <v>481.92849999999999</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="28">
         <v>6.18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>1000</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>500</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>64</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>78</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>0</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="28">
         <v>550.4973</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>550.4973</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <v>7.06</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>3000</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>1000</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>32</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>78</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="28">
         <v>401.0933</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <v>401.0933</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="28">
         <v>5.14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>3000</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>1000</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <v>64</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <v>78</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="28">
         <v>411.98099999999999</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="28">
         <v>411.98099999999999</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="28">
         <v>5.28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>1000</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>500</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>32</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>208</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>1258.799</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>1258.799</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>6.05</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>1000</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>500</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>64</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>208</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>1158.6916000000001</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>1158.6916000000001</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>5.57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>3000</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1000</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>32</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>208</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>802.44309999999996</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>802.44309999999996</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>3.86</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>3000</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>1000</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>64</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>208</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>1068.3013000000001</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>1068.3013000000001</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>5.14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>1000</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>500</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>32</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>165</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>0</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>926</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>926</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>5.61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>1000</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>500</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>64</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>165</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>909.41729999999995</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <v>909.41729999999995</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>5.51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>3000</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>1000</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>32</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>165</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>0</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>638.81349999999998</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>638.81349999999998</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>3.87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <v>3000</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>1000</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>64</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>165</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <v>0</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>734.42510000000004</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>734.42510000000004</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>4.45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>1000</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <v>500</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <v>32</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>85</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>0</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <v>456.6386</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>456.6386</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>5.37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>1000</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>500</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>64</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>85</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <v>621.13900000000001</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <v>621.13900000000001</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <v>7.31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>3000</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="21">
         <v>1000</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <v>32</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>85</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <v>0</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>368.827</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>368.827</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <v>4.34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>3000</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="21">
         <v>1000</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>64</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>85</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>0</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>488.69240000000002</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>488.69240000000002</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="22">
         <v>5.75</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>1000</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>500</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>32</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>536</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <v>1</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>3241.4551000000001</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <v>3241.4551000000001</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="25">
         <v>6.05</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>1000</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>500</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>64</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>536</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <v>1</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <v>3463.8456999999999</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="25">
         <v>3463.8456999999999</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="25">
         <v>6.47</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>3000</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>1000</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>32</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>536</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <v>1</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="25">
         <v>2419.2042999999999</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="25">
         <v>2419.2042999999999</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="25">
         <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <v>3000</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>1000</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <v>64</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>536</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <v>1</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="25">
         <v>2614.6851999999999</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="25">
         <v>2614.6851999999999</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="25">
         <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -4818,24 +8813,24 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="28">
         <v>6.18</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="28">
         <v>7.06</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>6.05</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <v>5.57</v>
       </c>
     </row>
@@ -4843,32 +8838,32 @@
       <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="19">
         <v>5.61</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>5.51</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="22">
         <v>5.37</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>7.31</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="25">
         <v>6.05</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="25">
         <v>6.47</v>
       </c>
     </row>
@@ -4893,11 +8888,11 @@
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -4911,24 +8906,24 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="28">
         <v>5.14</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="28">
         <v>5.28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="16">
         <v>3.86</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <v>5.14</v>
       </c>
     </row>
@@ -4936,32 +8931,32 @@
       <c r="A40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="19">
         <v>3.87</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="19">
         <v>4.45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="22">
         <v>4.34</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="22">
         <v>5.75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <v>4.5199999999999996</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="25">
         <v>4.8899999999999997</v>
       </c>
     </row>
@@ -4976,24 +8971,2542 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2e1f90f2-a85f-42a7-9fae-f36b87f55cf8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464C5721-3B64-4A33-9AE8-F8DAC905755F}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="92" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="4" width="8.6640625" style="3"/>
+    <col min="5" max="5" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="27">
+        <v>500</v>
+      </c>
+      <c r="D2" s="27">
+        <v>5</v>
+      </c>
+      <c r="E2" s="30">
+        <v>1059</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>4080.4636</v>
+      </c>
+      <c r="H2" s="29">
+        <v>4080.4636</v>
+      </c>
+      <c r="I2" s="29">
+        <v>3.853129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="27">
+        <v>500</v>
+      </c>
+      <c r="D3" s="27">
+        <v>15</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1059</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>4163.9614000000001</v>
+      </c>
+      <c r="H3" s="29">
+        <v>4163.9614000000001</v>
+      </c>
+      <c r="I3" s="29">
+        <v>3.9319000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="27">
+        <v>5</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1059</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>2779.8126999999999</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2779.8126999999999</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2.6248999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="27">
+        <v>15</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1059</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>3475.4162000000001</v>
+      </c>
+      <c r="H5" s="29">
+        <v>3475.4162000000001</v>
+      </c>
+      <c r="I5" s="29">
+        <v>3.2816999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>500</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1356</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4698.8891000000003</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4698.8891000000003</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3.4651999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="15">
+        <v>500</v>
+      </c>
+      <c r="D7" s="15">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1356</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4773.4607880000003</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4773.4607880000003</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.520251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1356</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3115.1633999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3115.1633999999999</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2.2972999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="15">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1356</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3574.1197999999999</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3574.1197999999999</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2.6356999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="18">
+        <v>500</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1443</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4757.9213760000002</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4757.9213760000002</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3.2972000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="18">
+        <v>500</v>
+      </c>
+      <c r="D11" s="18">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1443</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4840.8890700000002</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4840.8890700000002</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3.3546999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1443</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3484.3193000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3484.3193000000001</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2.4146000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="18">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1443</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3633.6136999999999</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3633.6136999999999</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.5179999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="21">
+        <v>500</v>
+      </c>
+      <c r="D14" s="21">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1391</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4508.299</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4508.299</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3.2410000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="21">
+        <v>500</v>
+      </c>
+      <c r="D15" s="21">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1391</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4584.0914000000002</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4584.0914000000002</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3.2955000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1391</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3311.4443999999999</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3311.4443999999999</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.3805999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="21">
+        <v>15</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1391</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3606.2500869999999</v>
+      </c>
+      <c r="H17" s="10">
+        <v>3606.2500869999999</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2.5925500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="31">
+        <v>500</v>
+      </c>
+      <c r="D18" s="31">
+        <v>5</v>
+      </c>
+      <c r="E18" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F18" s="13">
+        <v>50</v>
+      </c>
+      <c r="G18" s="12">
+        <v>26868.365099999999</v>
+      </c>
+      <c r="H18" s="12">
+        <v>27068.365099999999</v>
+      </c>
+      <c r="I18" s="12">
+        <v>5.1567999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="31">
+        <v>500</v>
+      </c>
+      <c r="D19" s="31">
+        <v>15</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F19" s="13">
+        <v>36</v>
+      </c>
+      <c r="G19" s="12">
+        <v>26227.371899999998</v>
+      </c>
+      <c r="H19" s="12">
+        <v>26371.371984000001</v>
+      </c>
+      <c r="I19" s="12">
+        <v>5.024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="31">
+        <v>5</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F20" s="13">
+        <v>26</v>
+      </c>
+      <c r="G20" s="12">
+        <v>18411.560000000001</v>
+      </c>
+      <c r="H20" s="12">
+        <v>18515.560000000001</v>
+      </c>
+      <c r="I20" s="12">
+        <v>3.5274000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="31">
+        <v>15</v>
+      </c>
+      <c r="E21" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F21" s="13">
+        <v>28</v>
+      </c>
+      <c r="G21" s="12">
+        <v>18807.407599999999</v>
+      </c>
+      <c r="H21" s="12">
+        <v>18919.407599999999</v>
+      </c>
+      <c r="I21" s="12">
+        <v>3.6042999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C22" s="31">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="31">
+        <v>5</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F22" s="13">
+        <v>13</v>
+      </c>
+      <c r="G22" s="12">
+        <v>18307.341400000001</v>
+      </c>
+      <c r="H22" s="12">
+        <v>18359.341476000001</v>
+      </c>
+      <c r="I22" s="12">
+        <v>3.4975999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C23" s="31">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="31">
+        <v>15</v>
+      </c>
+      <c r="E23" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F23" s="13">
+        <v>16</v>
+      </c>
+      <c r="G23" s="12">
+        <v>19247.836599999999</v>
+      </c>
+      <c r="H23" s="12">
+        <v>19311.836599999999</v>
+      </c>
+      <c r="I23" s="12">
+        <v>3.6791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="29">
+        <v>3.853129</v>
+      </c>
+      <c r="C30" s="29">
+        <v>3.9319000000000002</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3.4651999999999998</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3.520251</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6">
+        <v>3.2972000000000001</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3.3546999999999998</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="10">
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3.2955000000000001</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="12">
+        <v>5.1567999999999996</v>
+      </c>
+      <c r="C34" s="12">
+        <v>5.024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="29">
+        <v>2.6248999999999998</v>
+      </c>
+      <c r="C41" s="29">
+        <v>3.2816999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2.2972999999999999</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2.6356999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2.4146000000000001</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2.5179999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="10">
+        <v>2.3805999999999998</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2.5925500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="12">
+        <v>3.5274000000000001</v>
+      </c>
+      <c r="C45" s="12">
+        <v>3.6042999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A39:C39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93C3941-859E-4ACB-A68D-020142419E29}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="8.6640625" style="4"/>
+    <col min="6" max="6" width="15" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="27">
+        <v>500</v>
+      </c>
+      <c r="D2" s="27">
+        <v>5</v>
+      </c>
+      <c r="E2" s="27">
+        <v>78</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>365.58600000000001</v>
+      </c>
+      <c r="H2" s="28">
+        <v>365.58600000000001</v>
+      </c>
+      <c r="I2" s="28">
+        <v>4.6870000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="27">
+        <v>500</v>
+      </c>
+      <c r="D3" s="27">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27">
+        <v>78</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <v>501.64120000000003</v>
+      </c>
+      <c r="H3" s="28">
+        <v>501.64120000000003</v>
+      </c>
+      <c r="I3" s="28">
+        <v>6.4311999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="27">
+        <v>5</v>
+      </c>
+      <c r="E4" s="27">
+        <v>78</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
+        <v>264.428</v>
+      </c>
+      <c r="H4" s="28">
+        <v>264.428</v>
+      </c>
+      <c r="I4" s="28">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="27">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27">
+        <v>78</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>349.47399999999999</v>
+      </c>
+      <c r="H5" s="28">
+        <v>349.47399999999999</v>
+      </c>
+      <c r="I5" s="28">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>500</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15">
+        <v>208</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1011.9545000000001</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1011.9545000000001</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4.8650000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="15">
+        <v>500</v>
+      </c>
+      <c r="D7" s="15">
+        <v>15</v>
+      </c>
+      <c r="E7" s="15">
+        <v>208</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1205.9839999999999</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1205.9839999999999</v>
+      </c>
+      <c r="I7" s="16">
+        <v>5.798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>208</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>701.923</v>
+      </c>
+      <c r="H8" s="16">
+        <v>701.923</v>
+      </c>
+      <c r="I8" s="16">
+        <v>3.3740000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="15">
+        <v>15</v>
+      </c>
+      <c r="E9" s="15">
+        <v>208</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1030.5340000000001</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1030.5340000000001</v>
+      </c>
+      <c r="I9" s="16">
+        <v>4.9543999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="18">
+        <v>500</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18">
+        <v>165</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>732.93349999999998</v>
+      </c>
+      <c r="H10" s="19">
+        <v>732.93349999999998</v>
+      </c>
+      <c r="I10" s="19">
+        <v>4.4420000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="18">
+        <v>500</v>
+      </c>
+      <c r="D11" s="18">
+        <v>15</v>
+      </c>
+      <c r="E11" s="18">
+        <v>165</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>925.77337299999999</v>
+      </c>
+      <c r="H11" s="19">
+        <v>925.77337299999999</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18">
+        <v>165</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>557.15</v>
+      </c>
+      <c r="H12" s="19">
+        <v>557.15</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3.3759999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="18">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18">
+        <v>165</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>699.55799999999999</v>
+      </c>
+      <c r="H13" s="19">
+        <v>699.55799999999999</v>
+      </c>
+      <c r="I13" s="19">
+        <v>4.2389999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="21">
+        <v>500</v>
+      </c>
+      <c r="D14" s="21">
+        <v>5</v>
+      </c>
+      <c r="E14" s="21">
+        <v>85</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>426.26100000000002</v>
+      </c>
+      <c r="H14" s="22">
+        <v>426.26100000000002</v>
+      </c>
+      <c r="I14" s="22">
+        <v>5.0140000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="21">
+        <v>500</v>
+      </c>
+      <c r="D15" s="21">
+        <v>15</v>
+      </c>
+      <c r="E15" s="21">
+        <v>85</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>586.26</v>
+      </c>
+      <c r="H15" s="22">
+        <v>586.26</v>
+      </c>
+      <c r="I15" s="22">
+        <v>6.8970000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5</v>
+      </c>
+      <c r="E16" s="21">
+        <v>85</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
+        <v>307.61700000000002</v>
+      </c>
+      <c r="H16" s="22">
+        <v>307.61700000000002</v>
+      </c>
+      <c r="I16" s="22">
+        <v>3.6190000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="21">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21">
+        <v>85</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>474.58800000000002</v>
+      </c>
+      <c r="H17" s="22">
+        <v>474.58800000000002</v>
+      </c>
+      <c r="I17" s="22">
+        <v>5.5833000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="24">
+        <v>500</v>
+      </c>
+      <c r="D18" s="24">
+        <v>5</v>
+      </c>
+      <c r="E18" s="24">
+        <v>536</v>
+      </c>
+      <c r="F18" s="24">
+        <v>9</v>
+      </c>
+      <c r="G18" s="25">
+        <v>3273.9771999999998</v>
+      </c>
+      <c r="H18" s="25">
+        <v>3309.9771999999998</v>
+      </c>
+      <c r="I18" s="25">
+        <v>6.1753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="24">
+        <v>500</v>
+      </c>
+      <c r="D19" s="24">
+        <v>15</v>
+      </c>
+      <c r="E19" s="24">
+        <v>536</v>
+      </c>
+      <c r="F19" s="24">
+        <v>12</v>
+      </c>
+      <c r="G19" s="25">
+        <v>3744.652</v>
+      </c>
+      <c r="H19" s="25">
+        <v>3792.652</v>
+      </c>
+      <c r="I19" s="25">
+        <v>7.0750000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="24">
+        <v>5</v>
+      </c>
+      <c r="E20" s="24">
+        <v>536</v>
+      </c>
+      <c r="F20" s="24">
+        <v>4</v>
+      </c>
+      <c r="G20" s="25">
+        <v>2304.7539999999999</v>
+      </c>
+      <c r="H20" s="25">
+        <v>2320.7543000000001</v>
+      </c>
+      <c r="I20" s="25">
+        <v>4.3289999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="24">
+        <v>3000</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="24">
+        <v>15</v>
+      </c>
+      <c r="E21" s="24">
+        <v>536</v>
+      </c>
+      <c r="F21" s="24">
+        <v>9</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2733.3379</v>
+      </c>
+      <c r="H21" s="25">
+        <v>2769.3379</v>
+      </c>
+      <c r="I21" s="25">
+        <v>5.1665999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="28">
+        <v>4.6870000000000003</v>
+      </c>
+      <c r="C27" s="28">
+        <v>6.4311999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="16">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="C28" s="16">
+        <v>5.798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="19">
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="C29" s="19">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="22">
+        <v>5.0140000000000002</v>
+      </c>
+      <c r="C30" s="22">
+        <v>6.8970000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="25">
+        <v>6.1753</v>
+      </c>
+      <c r="C31" s="25">
+        <v>7.0750000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="28">
+        <v>3.39</v>
+      </c>
+      <c r="C38" s="28">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="16">
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="C39" s="16">
+        <v>4.9543999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="19">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="C40" s="19">
+        <v>4.2389999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="22">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="C41" s="22">
+        <v>5.5833000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="25">
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="C42" s="25">
+        <v>5.1665999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A36:C36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5DD4DC-7E62-4B3A-B5AB-54166A315ABE}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="33">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="33">
+        <v>32</v>
+      </c>
+      <c r="E2" s="33">
+        <v>1059</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="32">
+        <v>3399.7755999999999</v>
+      </c>
+      <c r="H2" s="32">
+        <v>3399.7755999999999</v>
+      </c>
+      <c r="I2" s="32">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1356</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4312.3843999999999</v>
+      </c>
+      <c r="H3" s="8">
+        <v>4312.3843999999999</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1443</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3848.9998999999998</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3848.9998999999998</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1391</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4397.1553000000004</v>
+      </c>
+      <c r="H5" s="10">
+        <v>4397.1553000000004</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>32</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>22907.441999999999</v>
+      </c>
+      <c r="H6" s="12">
+        <v>22907.441999999999</v>
+      </c>
+      <c r="I6" s="12">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="27">
+        <v>5</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1059</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>2779.8126999999999</v>
+      </c>
+      <c r="H9" s="29">
+        <v>2779.8126999999999</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2.6248999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1356</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3115.1633999999999</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3115.1633999999999</v>
+      </c>
+      <c r="I10" s="8">
+        <v>2.2972999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="18">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1443</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3484.3193000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3484.3193000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2.4146000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1391</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3311.4443999999999</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3311.4443999999999</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2.3805999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="31">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>5249</v>
+      </c>
+      <c r="F13" s="13">
+        <v>26</v>
+      </c>
+      <c r="G13" s="12">
+        <v>18411.560000000001</v>
+      </c>
+      <c r="H13" s="12">
+        <v>18515.560000000001</v>
+      </c>
+      <c r="I13" s="12">
+        <v>3.5274000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="27">
+        <v>32</v>
+      </c>
+      <c r="E16" s="27">
+        <v>78</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
+        <v>401.0933</v>
+      </c>
+      <c r="H16" s="28">
+        <v>401.0933</v>
+      </c>
+      <c r="I16" s="28">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="15">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15">
+        <v>208</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>802.44309999999996</v>
+      </c>
+      <c r="H17" s="16">
+        <v>802.44309999999996</v>
+      </c>
+      <c r="I17" s="16">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="18">
+        <v>32</v>
+      </c>
+      <c r="E18" s="18">
+        <v>165</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>638.81349999999998</v>
+      </c>
+      <c r="H18" s="19">
+        <v>638.81349999999998</v>
+      </c>
+      <c r="I18" s="19">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="21">
+        <v>32</v>
+      </c>
+      <c r="E19" s="21">
+        <v>85</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>368.827</v>
+      </c>
+      <c r="H19" s="22">
+        <v>368.827</v>
+      </c>
+      <c r="I19" s="22">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="24">
+        <v>32</v>
+      </c>
+      <c r="E20" s="24">
+        <v>536</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <v>2419.2042999999999</v>
+      </c>
+      <c r="H20" s="25">
+        <v>2419.2042999999999</v>
+      </c>
+      <c r="I20" s="25">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="27">
+        <v>3000</v>
+      </c>
+      <c r="C23" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="27">
+        <v>5</v>
+      </c>
+      <c r="E23" s="27">
+        <v>78</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <v>264.428</v>
+      </c>
+      <c r="H23" s="28">
+        <v>264.428</v>
+      </c>
+      <c r="I23" s="28">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="15">
+        <v>5</v>
+      </c>
+      <c r="E24" s="15">
+        <v>208</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>701.923</v>
+      </c>
+      <c r="H24" s="16">
+        <v>701.923</v>
+      </c>
+      <c r="I24" s="16">
+        <v>3.3740000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="18">
+        <v>5</v>
+      </c>
+      <c r="E25" s="18">
+        <v>165</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>557.15</v>
+      </c>
+      <c r="H25" s="19">
+        <v>557.15</v>
+      </c>
+      <c r="I25" s="19">
+        <v>3.3759999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="21">
+        <v>3000</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="21">
+        <v>5</v>
+      </c>
+      <c r="E26" s="21">
+        <v>85</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>307.61700000000002</v>
+      </c>
+      <c r="H26" s="22">
+        <v>307.61700000000002</v>
+      </c>
+      <c r="I26" s="22">
+        <v>3.6190000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="24">
+        <v>3000</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="24">
+        <v>5</v>
+      </c>
+      <c r="E27" s="24">
+        <v>536</v>
+      </c>
+      <c r="F27" s="24">
+        <v>4</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2304.7539999999999</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2320.7543000000001</v>
+      </c>
+      <c r="I27" s="25">
+        <v>4.3289999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="32">
+        <v>3.15</v>
+      </c>
+      <c r="C31" s="29">
+        <v>2.6248999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3.18</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.2972999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2.67</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2.4146000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2.3805999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3.5274000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="28">
+        <v>5.14</v>
+      </c>
+      <c r="C39" s="28">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="16">
+        <v>3.86</v>
+      </c>
+      <c r="C40" s="16">
+        <v>3.3740000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="19">
+        <v>3.87</v>
+      </c>
+      <c r="C41" s="19">
+        <v>3.3759999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="22">
+        <v>4.34</v>
+      </c>
+      <c r="C42" s="22">
+        <v>3.6190000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="25">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C43" s="25">
+        <v>4.3289999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A37:C37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B4C57AABDD3FE4C8D0F610AC9A6F681" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="52140937d7f7614c9d022840b2bdc366">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e1f90f2-a85f-42a7-9fae-f36b87f55cf8" xmlns:ns4="1a430a87-97d8-4638-ba74-2103fd9e5490" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a94332f85527bb2b3ba4cceb0c1fa16" ns3:_="" ns4:_="">
     <xsd:import namespace="2e1f90f2-a85f-42a7-9fae-f36b87f55cf8"/>
@@ -5188,32 +11701,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5466090B-99FC-46D3-98E8-55B509BA25FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2e1f90f2-a85f-42a7-9fae-f36b87f55cf8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1a430a87-97d8-4638-ba74-2103fd9e5490"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E259C01-CC35-4A69-B74D-6B1905EB281F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2e1f90f2-a85f-42a7-9fae-f36b87f55cf8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE2D60C7-FD2B-408D-8F0E-CA3A617852CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5230,4 +11735,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E259C01-CC35-4A69-B74D-6B1905EB281F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5466090B-99FC-46D3-98E8-55B509BA25FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2e1f90f2-a85f-42a7-9fae-f36b87f55cf8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1a430a87-97d8-4638-ba74-2103fd9e5490"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>